--- a/week-2/W2-S3-FlexBox/7_Wireframing/james-example.xlsx
+++ b/week-2/W2-S3-FlexBox/7_Wireframing/james-example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="24915" windowHeight="14895"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14340" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44:L44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25" t="s">
@@ -929,7 +929,7 @@
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
